--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="140">
   <si>
     <t>Username</t>
   </si>
@@ -295,6 +295,147 @@
   </si>
   <si>
     <t>2025-05-28T09:51:50.082Z</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:20.931Z</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:20.932Z</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2025-06-08</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:20.933Z</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:20.934Z</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:20.935Z</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:20.937Z</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.174Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.175Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.176Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.327Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.328Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.329Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.330Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.331Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.332Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.498Z</t>
+  </si>
+  <si>
+    <t>2025-06-11T04:33:21.499Z</t>
   </si>
 </sst>
 </file>
@@ -903,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D1" sqref="D1"/>
@@ -4657,6 +4798,2406 @@
         <v>92</v>
       </c>
     </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189" t="s">
+        <v>43</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>95</v>
+      </c>
+      <c r="C190" t="s">
+        <v>39</v>
+      </c>
+      <c r="D190" t="s">
+        <v>33</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" t="s">
+        <v>39</v>
+      </c>
+      <c r="D191" t="s">
+        <v>33</v>
+      </c>
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+      <c r="F191" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>98</v>
+      </c>
+      <c r="C192" t="s">
+        <v>39</v>
+      </c>
+      <c r="D192" t="s">
+        <v>33</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193" t="s">
+        <v>33</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>100</v>
+      </c>
+      <c r="C194" t="s">
+        <v>39</v>
+      </c>
+      <c r="D194" t="s">
+        <v>33</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" t="s">
+        <v>43</v>
+      </c>
+      <c r="D195" t="s">
+        <v>33</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>102</v>
+      </c>
+      <c r="C196" t="s">
+        <v>43</v>
+      </c>
+      <c r="D196" t="s">
+        <v>33</v>
+      </c>
+      <c r="E196" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>103</v>
+      </c>
+      <c r="C197" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" t="s">
+        <v>33</v>
+      </c>
+      <c r="E197" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>104</v>
+      </c>
+      <c r="C198" t="s">
+        <v>39</v>
+      </c>
+      <c r="D198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" t="s">
+        <v>39</v>
+      </c>
+      <c r="D199" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>107</v>
+      </c>
+      <c r="C200" t="s">
+        <v>39</v>
+      </c>
+      <c r="D200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>108</v>
+      </c>
+      <c r="C201" t="s">
+        <v>39</v>
+      </c>
+      <c r="D201" t="s">
+        <v>33</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>109</v>
+      </c>
+      <c r="C202" t="s">
+        <v>43</v>
+      </c>
+      <c r="D202" t="s">
+        <v>33</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>110</v>
+      </c>
+      <c r="C203" t="s">
+        <v>43</v>
+      </c>
+      <c r="D203" t="s">
+        <v>33</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" t="s">
+        <v>39</v>
+      </c>
+      <c r="D204" t="s">
+        <v>33</v>
+      </c>
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+      <c r="F204" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>112</v>
+      </c>
+      <c r="C205" t="s">
+        <v>39</v>
+      </c>
+      <c r="D205" t="s">
+        <v>33</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>114</v>
+      </c>
+      <c r="C206" t="s">
+        <v>39</v>
+      </c>
+      <c r="D206" t="s">
+        <v>33</v>
+      </c>
+      <c r="E206" t="s">
+        <v>5</v>
+      </c>
+      <c r="F206" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>115</v>
+      </c>
+      <c r="C207" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" t="s">
+        <v>33</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>117</v>
+      </c>
+      <c r="C209" t="s">
+        <v>43</v>
+      </c>
+      <c r="D209" t="s">
+        <v>33</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>119</v>
+      </c>
+      <c r="C210" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" t="s">
+        <v>33</v>
+      </c>
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+      <c r="F210" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>120</v>
+      </c>
+      <c r="C211" t="s">
+        <v>39</v>
+      </c>
+      <c r="D211" t="s">
+        <v>33</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>121</v>
+      </c>
+      <c r="C212" t="s">
+        <v>39</v>
+      </c>
+      <c r="D212" t="s">
+        <v>33</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>122</v>
+      </c>
+      <c r="C213" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" t="s">
+        <v>33</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>123</v>
+      </c>
+      <c r="C214" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" t="s">
+        <v>33</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>125</v>
+      </c>
+      <c r="C215" t="s">
+        <v>39</v>
+      </c>
+      <c r="D215" t="s">
+        <v>33</v>
+      </c>
+      <c r="E215" t="s">
+        <v>5</v>
+      </c>
+      <c r="F215" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>126</v>
+      </c>
+      <c r="C216" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" t="s">
+        <v>33</v>
+      </c>
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>127</v>
+      </c>
+      <c r="C217" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" t="s">
+        <v>5</v>
+      </c>
+      <c r="F217" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>128</v>
+      </c>
+      <c r="C218" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218" t="s">
+        <v>33</v>
+      </c>
+      <c r="E218" t="s">
+        <v>5</v>
+      </c>
+      <c r="F218" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" t="s">
+        <v>33</v>
+      </c>
+      <c r="E219" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" t="s">
+        <v>95</v>
+      </c>
+      <c r="C220" t="s">
+        <v>39</v>
+      </c>
+      <c r="D220" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" t="s">
+        <v>5</v>
+      </c>
+      <c r="F220" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
+        <v>97</v>
+      </c>
+      <c r="C221" t="s">
+        <v>39</v>
+      </c>
+      <c r="D221" t="s">
+        <v>33</v>
+      </c>
+      <c r="E221" t="s">
+        <v>5</v>
+      </c>
+      <c r="F221" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" t="s">
+        <v>98</v>
+      </c>
+      <c r="C222" t="s">
+        <v>39</v>
+      </c>
+      <c r="D222" t="s">
+        <v>33</v>
+      </c>
+      <c r="E222" t="s">
+        <v>5</v>
+      </c>
+      <c r="F222" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" t="s">
+        <v>99</v>
+      </c>
+      <c r="C223" t="s">
+        <v>39</v>
+      </c>
+      <c r="D223" t="s">
+        <v>33</v>
+      </c>
+      <c r="E223" t="s">
+        <v>5</v>
+      </c>
+      <c r="F223" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" t="s">
+        <v>100</v>
+      </c>
+      <c r="C224" t="s">
+        <v>39</v>
+      </c>
+      <c r="D224" t="s">
+        <v>33</v>
+      </c>
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+      <c r="F224" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" t="s">
+        <v>101</v>
+      </c>
+      <c r="C225" t="s">
+        <v>43</v>
+      </c>
+      <c r="D225" t="s">
+        <v>33</v>
+      </c>
+      <c r="E225" t="s">
+        <v>5</v>
+      </c>
+      <c r="F225" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>102</v>
+      </c>
+      <c r="C226" t="s">
+        <v>43</v>
+      </c>
+      <c r="D226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>5</v>
+      </c>
+      <c r="F226" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" t="s">
+        <v>103</v>
+      </c>
+      <c r="C227" t="s">
+        <v>39</v>
+      </c>
+      <c r="D227" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227" t="s">
+        <v>5</v>
+      </c>
+      <c r="F227" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>104</v>
+      </c>
+      <c r="C228" t="s">
+        <v>39</v>
+      </c>
+      <c r="D228" t="s">
+        <v>33</v>
+      </c>
+      <c r="E228" t="s">
+        <v>5</v>
+      </c>
+      <c r="F228" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" t="s">
+        <v>106</v>
+      </c>
+      <c r="C229" t="s">
+        <v>39</v>
+      </c>
+      <c r="D229" t="s">
+        <v>33</v>
+      </c>
+      <c r="E229" t="s">
+        <v>5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>107</v>
+      </c>
+      <c r="C230" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" t="s">
+        <v>33</v>
+      </c>
+      <c r="E230" t="s">
+        <v>5</v>
+      </c>
+      <c r="F230" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>108</v>
+      </c>
+      <c r="C231" t="s">
+        <v>39</v>
+      </c>
+      <c r="D231" t="s">
+        <v>33</v>
+      </c>
+      <c r="E231" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" t="s">
+        <v>109</v>
+      </c>
+      <c r="C232" t="s">
+        <v>43</v>
+      </c>
+      <c r="D232" t="s">
+        <v>33</v>
+      </c>
+      <c r="E232" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" t="s">
+        <v>110</v>
+      </c>
+      <c r="C233" t="s">
+        <v>43</v>
+      </c>
+      <c r="D233" t="s">
+        <v>33</v>
+      </c>
+      <c r="E233" t="s">
+        <v>5</v>
+      </c>
+      <c r="F233" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" t="s">
+        <v>111</v>
+      </c>
+      <c r="C234" t="s">
+        <v>39</v>
+      </c>
+      <c r="D234" t="s">
+        <v>33</v>
+      </c>
+      <c r="E234" t="s">
+        <v>5</v>
+      </c>
+      <c r="F234" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" t="s">
+        <v>112</v>
+      </c>
+      <c r="C235" t="s">
+        <v>39</v>
+      </c>
+      <c r="D235" t="s">
+        <v>33</v>
+      </c>
+      <c r="E235" t="s">
+        <v>5</v>
+      </c>
+      <c r="F235" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" t="s">
+        <v>114</v>
+      </c>
+      <c r="C236" t="s">
+        <v>39</v>
+      </c>
+      <c r="D236" t="s">
+        <v>33</v>
+      </c>
+      <c r="E236" t="s">
+        <v>5</v>
+      </c>
+      <c r="F236" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" t="s">
+        <v>115</v>
+      </c>
+      <c r="C237" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" t="s">
+        <v>33</v>
+      </c>
+      <c r="E237" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" t="s">
+        <v>116</v>
+      </c>
+      <c r="C238" t="s">
+        <v>39</v>
+      </c>
+      <c r="D238" t="s">
+        <v>33</v>
+      </c>
+      <c r="E238" t="s">
+        <v>5</v>
+      </c>
+      <c r="F238" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" t="s">
+        <v>117</v>
+      </c>
+      <c r="C239" t="s">
+        <v>43</v>
+      </c>
+      <c r="D239" t="s">
+        <v>33</v>
+      </c>
+      <c r="E239" t="s">
+        <v>5</v>
+      </c>
+      <c r="F239" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>119</v>
+      </c>
+      <c r="C240" t="s">
+        <v>43</v>
+      </c>
+      <c r="D240" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240" t="s">
+        <v>5</v>
+      </c>
+      <c r="F240" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
+        <v>120</v>
+      </c>
+      <c r="C241" t="s">
+        <v>39</v>
+      </c>
+      <c r="D241" t="s">
+        <v>33</v>
+      </c>
+      <c r="E241" t="s">
+        <v>5</v>
+      </c>
+      <c r="F241" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" t="s">
+        <v>121</v>
+      </c>
+      <c r="C242" t="s">
+        <v>39</v>
+      </c>
+      <c r="D242" t="s">
+        <v>33</v>
+      </c>
+      <c r="E242" t="s">
+        <v>5</v>
+      </c>
+      <c r="F242" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" t="s">
+        <v>122</v>
+      </c>
+      <c r="C243" t="s">
+        <v>39</v>
+      </c>
+      <c r="D243" t="s">
+        <v>33</v>
+      </c>
+      <c r="E243" t="s">
+        <v>5</v>
+      </c>
+      <c r="F243" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" t="s">
+        <v>123</v>
+      </c>
+      <c r="C244" t="s">
+        <v>39</v>
+      </c>
+      <c r="D244" t="s">
+        <v>33</v>
+      </c>
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+      <c r="F244" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" t="s">
+        <v>39</v>
+      </c>
+      <c r="D245" t="s">
+        <v>33</v>
+      </c>
+      <c r="E245" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" t="s">
+        <v>126</v>
+      </c>
+      <c r="C246" t="s">
+        <v>43</v>
+      </c>
+      <c r="D246" t="s">
+        <v>33</v>
+      </c>
+      <c r="E246" t="s">
+        <v>5</v>
+      </c>
+      <c r="F246" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C247" t="s">
+        <v>43</v>
+      </c>
+      <c r="D247" t="s">
+        <v>33</v>
+      </c>
+      <c r="E247" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" t="s">
+        <v>128</v>
+      </c>
+      <c r="C248" t="s">
+        <v>39</v>
+      </c>
+      <c r="D248" t="s">
+        <v>33</v>
+      </c>
+      <c r="E248" t="s">
+        <v>5</v>
+      </c>
+      <c r="F248" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s">
+        <v>93</v>
+      </c>
+      <c r="C249" t="s">
+        <v>43</v>
+      </c>
+      <c r="D249" t="s">
+        <v>33</v>
+      </c>
+      <c r="E249" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" t="s">
+        <v>95</v>
+      </c>
+      <c r="C250" t="s">
+        <v>39</v>
+      </c>
+      <c r="D250" t="s">
+        <v>33</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>97</v>
+      </c>
+      <c r="C251" t="s">
+        <v>39</v>
+      </c>
+      <c r="D251" t="s">
+        <v>33</v>
+      </c>
+      <c r="E251" t="s">
+        <v>5</v>
+      </c>
+      <c r="F251" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" t="s">
+        <v>98</v>
+      </c>
+      <c r="C252" t="s">
+        <v>39</v>
+      </c>
+      <c r="D252" t="s">
+        <v>33</v>
+      </c>
+      <c r="E252" t="s">
+        <v>5</v>
+      </c>
+      <c r="F252" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" t="s">
+        <v>99</v>
+      </c>
+      <c r="C253" t="s">
+        <v>39</v>
+      </c>
+      <c r="D253" t="s">
+        <v>33</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
+        <v>100</v>
+      </c>
+      <c r="C254" t="s">
+        <v>39</v>
+      </c>
+      <c r="D254" t="s">
+        <v>33</v>
+      </c>
+      <c r="E254" t="s">
+        <v>5</v>
+      </c>
+      <c r="F254" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" t="s">
+        <v>101</v>
+      </c>
+      <c r="C255" t="s">
+        <v>43</v>
+      </c>
+      <c r="D255" t="s">
+        <v>33</v>
+      </c>
+      <c r="E255" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>102</v>
+      </c>
+      <c r="C256" t="s">
+        <v>43</v>
+      </c>
+      <c r="D256" t="s">
+        <v>33</v>
+      </c>
+      <c r="E256" t="s">
+        <v>5</v>
+      </c>
+      <c r="F256" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="C257" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" t="s">
+        <v>33</v>
+      </c>
+      <c r="E257" t="s">
+        <v>5</v>
+      </c>
+      <c r="F257" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" t="s">
+        <v>104</v>
+      </c>
+      <c r="C258" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" t="s">
+        <v>106</v>
+      </c>
+      <c r="C259" t="s">
+        <v>39</v>
+      </c>
+      <c r="D259" t="s">
+        <v>33</v>
+      </c>
+      <c r="E259" t="s">
+        <v>5</v>
+      </c>
+      <c r="F259" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" t="s">
+        <v>107</v>
+      </c>
+      <c r="C260" t="s">
+        <v>39</v>
+      </c>
+      <c r="D260" t="s">
+        <v>33</v>
+      </c>
+      <c r="E260" t="s">
+        <v>5</v>
+      </c>
+      <c r="F260" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" t="s">
+        <v>108</v>
+      </c>
+      <c r="C261" t="s">
+        <v>39</v>
+      </c>
+      <c r="D261" t="s">
+        <v>33</v>
+      </c>
+      <c r="E261" t="s">
+        <v>5</v>
+      </c>
+      <c r="F261" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>109</v>
+      </c>
+      <c r="C262" t="s">
+        <v>43</v>
+      </c>
+      <c r="D262" t="s">
+        <v>33</v>
+      </c>
+      <c r="E262" t="s">
+        <v>5</v>
+      </c>
+      <c r="F262" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" t="s">
+        <v>110</v>
+      </c>
+      <c r="C263" t="s">
+        <v>43</v>
+      </c>
+      <c r="D263" t="s">
+        <v>33</v>
+      </c>
+      <c r="E263" t="s">
+        <v>5</v>
+      </c>
+      <c r="F263" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" t="s">
+        <v>111</v>
+      </c>
+      <c r="C264" t="s">
+        <v>39</v>
+      </c>
+      <c r="D264" t="s">
+        <v>33</v>
+      </c>
+      <c r="E264" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" t="s">
+        <v>112</v>
+      </c>
+      <c r="C265" t="s">
+        <v>39</v>
+      </c>
+      <c r="D265" t="s">
+        <v>33</v>
+      </c>
+      <c r="E265" t="s">
+        <v>5</v>
+      </c>
+      <c r="F265" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" t="s">
+        <v>114</v>
+      </c>
+      <c r="C266" t="s">
+        <v>39</v>
+      </c>
+      <c r="D266" t="s">
+        <v>33</v>
+      </c>
+      <c r="E266" t="s">
+        <v>5</v>
+      </c>
+      <c r="F266" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s">
+        <v>115</v>
+      </c>
+      <c r="C267" t="s">
+        <v>39</v>
+      </c>
+      <c r="D267" t="s">
+        <v>33</v>
+      </c>
+      <c r="E267" t="s">
+        <v>5</v>
+      </c>
+      <c r="F267" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" t="s">
+        <v>116</v>
+      </c>
+      <c r="C268" t="s">
+        <v>39</v>
+      </c>
+      <c r="D268" t="s">
+        <v>33</v>
+      </c>
+      <c r="E268" t="s">
+        <v>5</v>
+      </c>
+      <c r="F268" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>117</v>
+      </c>
+      <c r="C269" t="s">
+        <v>43</v>
+      </c>
+      <c r="D269" t="s">
+        <v>33</v>
+      </c>
+      <c r="E269" t="s">
+        <v>5</v>
+      </c>
+      <c r="F269" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" t="s">
+        <v>119</v>
+      </c>
+      <c r="C270" t="s">
+        <v>43</v>
+      </c>
+      <c r="D270" t="s">
+        <v>33</v>
+      </c>
+      <c r="E270" t="s">
+        <v>5</v>
+      </c>
+      <c r="F270" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" t="s">
+        <v>120</v>
+      </c>
+      <c r="C271" t="s">
+        <v>39</v>
+      </c>
+      <c r="D271" t="s">
+        <v>33</v>
+      </c>
+      <c r="E271" t="s">
+        <v>5</v>
+      </c>
+      <c r="F271" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" t="s">
+        <v>121</v>
+      </c>
+      <c r="C272" t="s">
+        <v>39</v>
+      </c>
+      <c r="D272" t="s">
+        <v>33</v>
+      </c>
+      <c r="E272" t="s">
+        <v>5</v>
+      </c>
+      <c r="F272" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>122</v>
+      </c>
+      <c r="C273" t="s">
+        <v>39</v>
+      </c>
+      <c r="D273" t="s">
+        <v>33</v>
+      </c>
+      <c r="E273" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" t="s">
+        <v>123</v>
+      </c>
+      <c r="C274" t="s">
+        <v>39</v>
+      </c>
+      <c r="D274" t="s">
+        <v>33</v>
+      </c>
+      <c r="E274" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" t="s">
+        <v>125</v>
+      </c>
+      <c r="C275" t="s">
+        <v>39</v>
+      </c>
+      <c r="D275" t="s">
+        <v>33</v>
+      </c>
+      <c r="E275" t="s">
+        <v>5</v>
+      </c>
+      <c r="F275" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" t="s">
+        <v>126</v>
+      </c>
+      <c r="C276" t="s">
+        <v>43</v>
+      </c>
+      <c r="D276" t="s">
+        <v>33</v>
+      </c>
+      <c r="E276" t="s">
+        <v>5</v>
+      </c>
+      <c r="F276" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" t="s">
+        <v>127</v>
+      </c>
+      <c r="C277" t="s">
+        <v>43</v>
+      </c>
+      <c r="D277" t="s">
+        <v>33</v>
+      </c>
+      <c r="E277" t="s">
+        <v>5</v>
+      </c>
+      <c r="F277" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" t="s">
+        <v>128</v>
+      </c>
+      <c r="C278" t="s">
+        <v>39</v>
+      </c>
+      <c r="D278" t="s">
+        <v>33</v>
+      </c>
+      <c r="E278" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279" t="s">
+        <v>93</v>
+      </c>
+      <c r="C279" t="s">
+        <v>43</v>
+      </c>
+      <c r="D279" t="s">
+        <v>33</v>
+      </c>
+      <c r="E279" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280" t="s">
+        <v>95</v>
+      </c>
+      <c r="C280" t="s">
+        <v>39</v>
+      </c>
+      <c r="D280" t="s">
+        <v>33</v>
+      </c>
+      <c r="E280" t="s">
+        <v>5</v>
+      </c>
+      <c r="F280" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281" t="s">
+        <v>97</v>
+      </c>
+      <c r="C281" t="s">
+        <v>39</v>
+      </c>
+      <c r="D281" t="s">
+        <v>33</v>
+      </c>
+      <c r="E281" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282" t="s">
+        <v>98</v>
+      </c>
+      <c r="C282" t="s">
+        <v>39</v>
+      </c>
+      <c r="D282" t="s">
+        <v>33</v>
+      </c>
+      <c r="E282" t="s">
+        <v>5</v>
+      </c>
+      <c r="F282" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283" t="s">
+        <v>99</v>
+      </c>
+      <c r="C283" t="s">
+        <v>39</v>
+      </c>
+      <c r="D283" t="s">
+        <v>33</v>
+      </c>
+      <c r="E283" t="s">
+        <v>5</v>
+      </c>
+      <c r="F283" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>100</v>
+      </c>
+      <c r="C284" t="s">
+        <v>39</v>
+      </c>
+      <c r="D284" t="s">
+        <v>33</v>
+      </c>
+      <c r="E284" t="s">
+        <v>5</v>
+      </c>
+      <c r="F284" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" t="s">
+        <v>101</v>
+      </c>
+      <c r="C285" t="s">
+        <v>43</v>
+      </c>
+      <c r="D285" t="s">
+        <v>33</v>
+      </c>
+      <c r="E285" t="s">
+        <v>5</v>
+      </c>
+      <c r="F285" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" t="s">
+        <v>102</v>
+      </c>
+      <c r="C286" t="s">
+        <v>43</v>
+      </c>
+      <c r="D286" t="s">
+        <v>33</v>
+      </c>
+      <c r="E286" t="s">
+        <v>5</v>
+      </c>
+      <c r="F286" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" t="s">
+        <v>103</v>
+      </c>
+      <c r="C287" t="s">
+        <v>39</v>
+      </c>
+      <c r="D287" t="s">
+        <v>33</v>
+      </c>
+      <c r="E287" t="s">
+        <v>5</v>
+      </c>
+      <c r="F287" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s">
+        <v>104</v>
+      </c>
+      <c r="C288" t="s">
+        <v>39</v>
+      </c>
+      <c r="D288" t="s">
+        <v>33</v>
+      </c>
+      <c r="E288" t="s">
+        <v>5</v>
+      </c>
+      <c r="F288" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>106</v>
+      </c>
+      <c r="C289" t="s">
+        <v>39</v>
+      </c>
+      <c r="D289" t="s">
+        <v>33</v>
+      </c>
+      <c r="E289" t="s">
+        <v>5</v>
+      </c>
+      <c r="F289" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290" t="s">
+        <v>107</v>
+      </c>
+      <c r="C290" t="s">
+        <v>39</v>
+      </c>
+      <c r="D290" t="s">
+        <v>33</v>
+      </c>
+      <c r="E290" t="s">
+        <v>5</v>
+      </c>
+      <c r="F290" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" t="s">
+        <v>108</v>
+      </c>
+      <c r="C291" t="s">
+        <v>39</v>
+      </c>
+      <c r="D291" t="s">
+        <v>33</v>
+      </c>
+      <c r="E291" t="s">
+        <v>5</v>
+      </c>
+      <c r="F291" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" t="s">
+        <v>109</v>
+      </c>
+      <c r="C292" t="s">
+        <v>43</v>
+      </c>
+      <c r="D292" t="s">
+        <v>33</v>
+      </c>
+      <c r="E292" t="s">
+        <v>5</v>
+      </c>
+      <c r="F292" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" t="s">
+        <v>110</v>
+      </c>
+      <c r="C293" t="s">
+        <v>43</v>
+      </c>
+      <c r="D293" t="s">
+        <v>33</v>
+      </c>
+      <c r="E293" t="s">
+        <v>5</v>
+      </c>
+      <c r="F293" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294" t="s">
+        <v>111</v>
+      </c>
+      <c r="C294" t="s">
+        <v>39</v>
+      </c>
+      <c r="D294" t="s">
+        <v>33</v>
+      </c>
+      <c r="E294" t="s">
+        <v>5</v>
+      </c>
+      <c r="F294" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295" t="s">
+        <v>112</v>
+      </c>
+      <c r="C295" t="s">
+        <v>39</v>
+      </c>
+      <c r="D295" t="s">
+        <v>33</v>
+      </c>
+      <c r="E295" t="s">
+        <v>5</v>
+      </c>
+      <c r="F295" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296" t="s">
+        <v>114</v>
+      </c>
+      <c r="C296" t="s">
+        <v>39</v>
+      </c>
+      <c r="D296" t="s">
+        <v>33</v>
+      </c>
+      <c r="E296" t="s">
+        <v>5</v>
+      </c>
+      <c r="F296" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" t="s">
+        <v>115</v>
+      </c>
+      <c r="C297" t="s">
+        <v>39</v>
+      </c>
+      <c r="D297" t="s">
+        <v>33</v>
+      </c>
+      <c r="E297" t="s">
+        <v>5</v>
+      </c>
+      <c r="F297" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298" t="s">
+        <v>116</v>
+      </c>
+      <c r="C298" t="s">
+        <v>39</v>
+      </c>
+      <c r="D298" t="s">
+        <v>33</v>
+      </c>
+      <c r="E298" t="s">
+        <v>5</v>
+      </c>
+      <c r="F298" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299" t="s">
+        <v>117</v>
+      </c>
+      <c r="C299" t="s">
+        <v>43</v>
+      </c>
+      <c r="D299" t="s">
+        <v>33</v>
+      </c>
+      <c r="E299" t="s">
+        <v>5</v>
+      </c>
+      <c r="F299" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300" t="s">
+        <v>119</v>
+      </c>
+      <c r="C300" t="s">
+        <v>43</v>
+      </c>
+      <c r="D300" t="s">
+        <v>33</v>
+      </c>
+      <c r="E300" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301" t="s">
+        <v>120</v>
+      </c>
+      <c r="C301" t="s">
+        <v>39</v>
+      </c>
+      <c r="D301" t="s">
+        <v>33</v>
+      </c>
+      <c r="E301" t="s">
+        <v>5</v>
+      </c>
+      <c r="F301" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>18</v>
+      </c>
+      <c r="B302" t="s">
+        <v>121</v>
+      </c>
+      <c r="C302" t="s">
+        <v>39</v>
+      </c>
+      <c r="D302" t="s">
+        <v>33</v>
+      </c>
+      <c r="E302" t="s">
+        <v>5</v>
+      </c>
+      <c r="F302" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303" t="s">
+        <v>122</v>
+      </c>
+      <c r="C303" t="s">
+        <v>39</v>
+      </c>
+      <c r="D303" t="s">
+        <v>33</v>
+      </c>
+      <c r="E303" t="s">
+        <v>5</v>
+      </c>
+      <c r="F303" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304" t="s">
+        <v>123</v>
+      </c>
+      <c r="C304" t="s">
+        <v>39</v>
+      </c>
+      <c r="D304" t="s">
+        <v>33</v>
+      </c>
+      <c r="E304" t="s">
+        <v>5</v>
+      </c>
+      <c r="F304" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>18</v>
+      </c>
+      <c r="B305" t="s">
+        <v>125</v>
+      </c>
+      <c r="C305" t="s">
+        <v>39</v>
+      </c>
+      <c r="D305" t="s">
+        <v>33</v>
+      </c>
+      <c r="E305" t="s">
+        <v>5</v>
+      </c>
+      <c r="F305" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306" t="s">
+        <v>126</v>
+      </c>
+      <c r="C306" t="s">
+        <v>43</v>
+      </c>
+      <c r="D306" t="s">
+        <v>33</v>
+      </c>
+      <c r="E306" t="s">
+        <v>5</v>
+      </c>
+      <c r="F306" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>18</v>
+      </c>
+      <c r="B307" t="s">
+        <v>127</v>
+      </c>
+      <c r="C307" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" t="s">
+        <v>33</v>
+      </c>
+      <c r="E307" t="s">
+        <v>5</v>
+      </c>
+      <c r="F307" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308" t="s">
+        <v>128</v>
+      </c>
+      <c r="C308" t="s">
+        <v>39</v>
+      </c>
+      <c r="D308" t="s">
+        <v>33</v>
+      </c>
+      <c r="E308" t="s">
+        <v>5</v>
+      </c>
+      <c r="F308" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
